--- a/give-it-to-you-plus/report.xlsx
+++ b/give-it-to-you-plus/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="32">
   <si>
     <t>用户名</t>
   </si>
@@ -44,58 +44,70 @@
     <t>purexu</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>530.00</t>
-  </si>
-  <si>
-    <t>2023-12-19 14:50:55</t>
-  </si>
-  <si>
-    <t>A-6</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>2024-01-13 11:06:17</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2110.00</t>
+  </si>
+  <si>
+    <t>2024-01-10 18:42:54</t>
+  </si>
+  <si>
+    <t>个性化贷款</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>2023-12-26 18:03:00</t>
   </si>
   <si>
     <t>微信</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2023-12-19 17:24:59</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2023-12-19 17:29:08</t>
-  </si>
-  <si>
-    <t>2023-12-19 17:36:21</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2023-12-28 16:55:45</t>
+    <t>2024-01-10 18:43:26</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>2023-12-26 18:02:12</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2023-12-28 16:55:46</t>
-  </si>
-  <si>
-    <t>2023-12-28 16:55:47</t>
+    <t>552.50</t>
+  </si>
+  <si>
+    <t>2023-12-26 17:55:02</t>
+  </si>
+  <si>
+    <t>A-24</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>A-12</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>11.50</t>
+  </si>
+  <si>
+    <t>5.50</t>
   </si>
 </sst>
 </file>
@@ -165,7 +177,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -248,13 +260,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>14</v>
@@ -263,7 +275,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>17</v>
@@ -274,13 +286,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>12</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>21</v>
@@ -303,16 +315,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>12</v>
-      </c>
       <c r="E5" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -321,7 +333,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>17</v>
@@ -332,16 +344,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>23</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -361,16 +373,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>24</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -379,7 +391,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>17</v>
@@ -393,19 +405,19 @@
         <v>10</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>16</v>
@@ -422,24 +434,662 @@
         <v>10</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>12</v>
       </c>
       <c r="E9" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="H9" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>17</v>
       </c>
     </row>
